--- a/assets/xlsx/matrix_structure_drawing.xlsx
+++ b/assets/xlsx/matrix_structure_drawing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jongya/Desktop/Workspace/whdrns2013.github.io/assets/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\github_personal\whdrns2013.github.io\assets\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A06253-4BCA-C44D-A4F2-6C7B52A5D803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52364743-0A88-4455-90B1-DD5B471387C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,13 +86,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>434542</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>32326</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>60902</xdr:rowOff>
@@ -110,14 +110,14 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="434542" y="2846531"/>
-          <a:ext cx="6529388" cy="3275735"/>
+          <a:off x="4486997" y="2733962"/>
+          <a:ext cx="6500523" cy="3145849"/>
           <a:chOff x="319087" y="2081645"/>
           <a:chExt cx="6529388" cy="3275735"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="3" name="TextBox 2">
@@ -341,7 +341,7 @@
             </xdr:txBody>
           </xdr:sp>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="3" name="TextBox 2">
@@ -607,13 +607,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>202045</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>147205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>665595</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>46471</xdr:rowOff>
@@ -631,14 +631,14 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7663295" y="2744932"/>
-          <a:ext cx="7246505" cy="4661766"/>
+          <a:off x="11684000" y="2641023"/>
+          <a:ext cx="7217640" cy="4471266"/>
           <a:chOff x="0" y="7334250"/>
           <a:chExt cx="7246505" cy="4661766"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="2" name="TextBox 1">
@@ -862,7 +862,7 @@
             </xdr:txBody>
           </xdr:sp>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="2" name="TextBox 1">
@@ -1274,13 +1274,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>132813</xdr:rowOff>
@@ -1298,14 +1298,14 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1356591" y="177800"/>
-          <a:ext cx="4704773" cy="1470354"/>
+          <a:off x="5403273" y="177800"/>
+          <a:ext cx="4687454" cy="1409740"/>
           <a:chOff x="1346200" y="177800"/>
           <a:chExt cx="4673600" cy="1466313"/>
         </a:xfrm>
       </xdr:grpSpPr>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="23" name="TextBox 22">
@@ -1502,7 +1502,7 @@
             </xdr:txBody>
           </xdr:sp>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="23" name="TextBox 22">
@@ -1563,8 +1563,8 @@
           </xdr:sp>
         </mc:Fallback>
       </mc:AlternateContent>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="24" name="TextBox 23">
@@ -1761,7 +1761,7 @@
             </xdr:txBody>
           </xdr:sp>
         </mc:Choice>
-        <mc:Fallback>
+        <mc:Fallback xmlns="">
           <xdr:sp macro="" textlink="">
             <xdr:nvSpPr>
               <xdr:cNvPr id="24" name="TextBox 23">
@@ -2031,14 +2031,14 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>173183</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3723409" cy="1385700"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="TextBox 29">
@@ -2162,7 +2162,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="TextBox 29">
@@ -2227,14 +2227,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>216477</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>14432</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6529388" cy="2192203"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30">
@@ -2400,7 +2400,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30">
@@ -2465,14 +2465,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>181264</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>123537</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="7251122" cy="3104055"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="TextBox 31">
@@ -2756,7 +2756,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="TextBox 31">
@@ -2821,13 +2821,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>144318</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>101022</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>360794</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>37522</xdr:rowOff>
@@ -2895,13 +2895,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>389659</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>14430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>606135</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>167408</xdr:rowOff>
@@ -2969,13 +2969,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>173182</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>86590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>389659</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>23090</xdr:rowOff>
@@ -3043,13 +3043,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>274206</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>129887</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>274205</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>66387</xdr:rowOff>
@@ -3137,14 +3137,14 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>68</xdr:row>
       <xdr:rowOff>57727</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4560455" cy="845296"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="39" name="TextBox 38">
@@ -3258,7 +3258,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="39" name="TextBox 38">
@@ -3323,14 +3323,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>461817</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>187614</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3203865" cy="3944991"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="40" name="TextBox 39">
@@ -3468,7 +3468,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="40" name="TextBox 39">
@@ -3533,13 +3533,13 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>447387</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>187613</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>490682</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>124113</xdr:rowOff>
@@ -3600,13 +3600,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>86591</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>144318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>129886</xdr:colOff>
       <xdr:row>85</xdr:row>
       <xdr:rowOff>80818</xdr:rowOff>
@@ -3667,14 +3667,14 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>92</xdr:row>
       <xdr:rowOff>144318</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6529388" cy="2269276"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="43" name="TextBox 42">
@@ -3840,7 +3840,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="43" name="TextBox 42">
@@ -3905,19 +3905,19 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>346364</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>72159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>92798</xdr:colOff>
       <xdr:row>104</xdr:row>
       <xdr:rowOff>145533</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="44" name="TextBox 43">
@@ -4141,7 +4141,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="44" name="TextBox 43">
@@ -4206,14 +4206,14 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>115</xdr:row>
       <xdr:rowOff>144318</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6529388" cy="2269276"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="45" name="TextBox 44">
@@ -4379,7 +4379,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="45" name="TextBox 44">
@@ -4444,19 +4444,19 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>375227</xdr:colOff>
       <xdr:row>113</xdr:row>
       <xdr:rowOff>115454</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>121661</xdr:colOff>
       <xdr:row>127</xdr:row>
       <xdr:rowOff>188827</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="46" name="TextBox 45">
@@ -4680,7 +4680,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="46" name="TextBox 45">
@@ -4745,14 +4745,14 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>141</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6529388" cy="2269276"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="47" name="TextBox 46">
@@ -4918,7 +4918,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="47" name="TextBox 46">
@@ -4983,19 +4983,19 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>375227</xdr:colOff>
       <xdr:row>139</xdr:row>
       <xdr:rowOff>129886</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>121661</xdr:colOff>
       <xdr:row>153</xdr:row>
       <xdr:rowOff>203259</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="48" name="TextBox 47">
@@ -5219,7 +5219,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="48" name="TextBox 47">
@@ -5284,14 +5284,14 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>162</xdr:row>
       <xdr:rowOff>72159</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6529388" cy="2269276"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="49" name="TextBox 48">
@@ -5374,7 +5374,13 @@
                                 <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 </a:rPr>
-                                <m:t>25</m:t>
+                                <m:t>2</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>5</m:t>
                               </m:r>
                             </m:e>
                             <m:e>
@@ -5457,7 +5463,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="49" name="TextBox 48">
@@ -5522,19 +5528,19 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>346364</xdr:colOff>
       <xdr:row>160</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>92798</xdr:colOff>
       <xdr:row>174</xdr:row>
       <xdr:rowOff>73374</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="50" name="TextBox 49">
@@ -5758,7 +5764,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="50" name="TextBox 49">
@@ -5823,19 +5829,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>663864</xdr:colOff>
       <xdr:row>160</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>410297</xdr:colOff>
       <xdr:row>174</xdr:row>
       <xdr:rowOff>73374</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="51" name="TextBox 50">
@@ -6059,7 +6065,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="51" name="TextBox 50">
@@ -6124,14 +6130,14 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>180</xdr:row>
       <xdr:rowOff>72159</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6529388" cy="2269276"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="52" name="TextBox 51">
@@ -6297,7 +6303,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="52" name="TextBox 51">
@@ -6362,19 +6368,19 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>346364</xdr:colOff>
       <xdr:row>178</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>92798</xdr:colOff>
       <xdr:row>192</xdr:row>
       <xdr:rowOff>73374</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="53" name="TextBox 52">
@@ -6598,7 +6604,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="53" name="TextBox 52">
@@ -6663,19 +6669,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>663864</xdr:colOff>
       <xdr:row>178</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>410297</xdr:colOff>
       <xdr:row>192</xdr:row>
       <xdr:rowOff>73374</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="54" name="TextBox 53">
@@ -6899,7 +6905,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="54" name="TextBox 53">
@@ -6962,6 +6968,8499 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>198</xdr:row>
+      <xdr:rowOff>21648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>377989</xdr:colOff>
+      <xdr:row>254</xdr:row>
+      <xdr:rowOff>149140</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="63" name="그룹 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C808E8E5-B9EE-5341-FB74-89B90A6D01F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4052455" y="41169648"/>
+          <a:ext cx="21315670" cy="11765310"/>
+          <a:chOff x="0" y="40741023"/>
+          <a:chExt cx="21181455" cy="11644083"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="60" name="그룹 59">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EBE5BA-E24B-8C02-8454-2F55C5B0EC4C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1656072" y="40741023"/>
+            <a:ext cx="19525383" cy="11644083"/>
+            <a:chOff x="1656072" y="40741023"/>
+            <a:chExt cx="19525383" cy="11644083"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="10" name="TextBox 9">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6F57D5-A6EA-4492-A985-9573E932B1B9}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="1656072" y="40925028"/>
+                  <a:ext cx="7251122" cy="3104055"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr/>
+                  <a14:m>
+                    <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                      <m:oMathParaPr>
+                        <m:jc m:val="centerGroup"/>
+                      </m:oMathParaPr>
+                      <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:m>
+                              <m:mPr>
+                                <m:mcs>
+                                  <m:mc>
+                                    <m:mcPr>
+                                      <m:count m:val="4"/>
+                                      <m:mcJc m:val="center"/>
+                                    </m:mcPr>
+                                  </m:mc>
+                                </m:mcs>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:mPr>
+                              <m:mr>
+                                <m:e>
+                                  <m:r>
+                                    <m:rPr>
+                                      <m:brk m:alnAt="7"/>
+                                    </m:rPr>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>11</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>12</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>1</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑛</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:mr>
+                              <m:mr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>21</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>22</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>2</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑛</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:mr>
+                              <m:mr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:mr>
+                              <m:mr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎𝑛</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>1</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎𝑛</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>2</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎𝑛𝑛</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:mr>
+                            </m:m>
+                          </m:e>
+                        </m:d>
+                      </m:oMath>
+                    </m:oMathPara>
+                  </a14:m>
+                  <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </mc:Choice>
+          <mc:Fallback>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="10" name="TextBox 9">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6F57D5-A6EA-4492-A985-9573E932B1B9}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="1656072" y="40925028"/>
+                  <a:ext cx="7251122" cy="3104055"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr/>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <a:t>(■8(</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <a:t>𝑎11&amp;𝑎12&amp;…&amp;𝑎1𝑛@𝑎21&amp;𝑎22&amp;…&amp;𝑎2𝑛@…&amp;…&amp;…&amp;…@𝑎𝑛1&amp;𝑎𝑛2&amp;…&amp;𝑎𝑛𝑛))</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </mc:Fallback>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="11" name="TextBox 10">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{034D475D-779B-4C43-AF56-8052B5375655}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="13930333" y="40741023"/>
+                  <a:ext cx="7251122" cy="3104055"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr/>
+                  <a14:m>
+                    <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                      <m:oMathParaPr>
+                        <m:jc m:val="centerGroup"/>
+                      </m:oMathParaPr>
+                      <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:m>
+                              <m:mPr>
+                                <m:mcs>
+                                  <m:mc>
+                                    <m:mcPr>
+                                      <m:count m:val="4"/>
+                                      <m:mcJc m:val="center"/>
+                                    </m:mcPr>
+                                  </m:mc>
+                                </m:mcs>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:mPr>
+                              <m:mr>
+                                <m:e>
+                                  <m:r>
+                                    <m:rPr>
+                                      <m:brk m:alnAt="7"/>
+                                    </m:rPr>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>11</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>12</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>1</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑛</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:mr>
+                              <m:mr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>21</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>22</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>2</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑛</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:mr>
+                              <m:mr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:mr>
+                              <m:mr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎𝑛</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>1</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎𝑛</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>2</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎𝑛𝑛</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:mr>
+                            </m:m>
+                          </m:e>
+                        </m:d>
+                      </m:oMath>
+                    </m:oMathPara>
+                  </a14:m>
+                  <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </mc:Choice>
+          <mc:Fallback>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="11" name="TextBox 10">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{034D475D-779B-4C43-AF56-8052B5375655}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="13930333" y="40741023"/>
+                  <a:ext cx="7251122" cy="3104055"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr/>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <a:t>(■8(</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <a:t>𝑎11&amp;𝑎12&amp;…&amp;𝑎1𝑛@𝑎21&amp;𝑎22&amp;…&amp;𝑎2𝑛@…&amp;…&amp;…&amp;…@𝑎𝑛1&amp;𝑎𝑛2&amp;…&amp;𝑎𝑛𝑛))</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </mc:Fallback>
+        </mc:AlternateContent>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7975FB0B-EB31-6248-A2EC-F5E19B03C34C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9503373" y="41650226"/>
+              <a:ext cx="887557" cy="1396279"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="8800"/>
+                <a:t>+</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="8800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8B9D38B-3409-4274-BE7D-618BF8A2C11B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10780589" y="41217271"/>
+              <a:ext cx="1905000" cy="2045711"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="13800"/>
+                <a:t>O</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="13800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="TextBox 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39D0BBFA-7486-4E4A-9D59-DDD3BDCA515A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12739708" y="41606932"/>
+              <a:ext cx="887557" cy="1396279"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="8800"/>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="8800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="TextBox 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99D25785-B78A-4A0D-B3EA-CCC31015B216}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2013259" y="45936477"/>
+              <a:ext cx="1905000" cy="2045711"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="13800"/>
+                <a:t>O</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="13800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="TextBox 20">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D84CC93-17B4-4184-800F-F9D1A6F68EA5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3799197" y="46315312"/>
+              <a:ext cx="887557" cy="1396279"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="8800"/>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="8800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="55" name="TextBox 54">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96EBFC9C-DAB8-4579-BC61-2CB27A46F533}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="5054765" y="45655057"/>
+                  <a:ext cx="7251122" cy="3104055"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr/>
+                  <a14:m>
+                    <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                      <m:oMathParaPr>
+                        <m:jc m:val="centerGroup"/>
+                      </m:oMathParaPr>
+                      <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:m>
+                              <m:mPr>
+                                <m:mcs>
+                                  <m:mc>
+                                    <m:mcPr>
+                                      <m:count m:val="4"/>
+                                      <m:mcJc m:val="center"/>
+                                    </m:mcPr>
+                                  </m:mc>
+                                </m:mcs>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:mPr>
+                              <m:mr>
+                                <m:e>
+                                  <m:r>
+                                    <m:rPr>
+                                      <m:brk m:alnAt="7"/>
+                                    </m:rPr>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>11</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>12</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>1</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑛</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:mr>
+                              <m:mr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>21</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>22</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>2</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑛</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:mr>
+                              <m:mr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:mr>
+                              <m:mr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎𝑛</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>1</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎𝑛</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>2</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎𝑛𝑛</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:mr>
+                            </m:m>
+                          </m:e>
+                        </m:d>
+                      </m:oMath>
+                    </m:oMathPara>
+                  </a14:m>
+                  <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </mc:Choice>
+          <mc:Fallback>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="55" name="TextBox 54">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96EBFC9C-DAB8-4579-BC61-2CB27A46F533}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="5054765" y="45655057"/>
+                  <a:ext cx="7251122" cy="3104055"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr/>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <a:t>(■8(</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <a:t>𝑎11&amp;𝑎12&amp;…&amp;𝑎1𝑛@𝑎21&amp;𝑎22&amp;…&amp;𝑎2𝑛@…&amp;…&amp;…&amp;…@𝑎𝑛1&amp;𝑎𝑛2&amp;…&amp;𝑎𝑛𝑛))</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </mc:Fallback>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="56" name="TextBox 55">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{787756D1-AD63-4539-ADA8-8A6E0B29EF4B}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="13161840" y="45590113"/>
+                  <a:ext cx="7251122" cy="3104055"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr/>
+                  <a14:m>
+                    <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                      <m:oMathParaPr>
+                        <m:jc m:val="centerGroup"/>
+                      </m:oMathParaPr>
+                      <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:m>
+                              <m:mPr>
+                                <m:mcs>
+                                  <m:mc>
+                                    <m:mcPr>
+                                      <m:count m:val="4"/>
+                                      <m:mcJc m:val="center"/>
+                                    </m:mcPr>
+                                  </m:mc>
+                                </m:mcs>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:mPr>
+                              <m:mr>
+                                <m:e>
+                                  <m:r>
+                                    <m:rPr>
+                                      <m:brk m:alnAt="7"/>
+                                    </m:rPr>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>11</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>12</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>1</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑛</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:mr>
+                              <m:mr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>21</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>22</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>2</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑛</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:mr>
+                              <m:mr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:mr>
+                              <m:mr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎𝑛</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>1</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎𝑛</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>2</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑎𝑛𝑛</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:mr>
+                            </m:m>
+                          </m:e>
+                        </m:d>
+                      </m:oMath>
+                    </m:oMathPara>
+                  </a14:m>
+                  <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </mc:Choice>
+          <mc:Fallback>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="56" name="TextBox 55">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{787756D1-AD63-4539-ADA8-8A6E0B29EF4B}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="13161840" y="45590113"/>
+                  <a:ext cx="7251122" cy="3104055"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr/>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <a:t>(■8(</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <a:t>𝑎11&amp;𝑎12&amp;…&amp;𝑎1𝑛@𝑎21&amp;𝑎22&amp;…&amp;𝑎2𝑛@…&amp;…&amp;…&amp;…@𝑎𝑛1&amp;𝑎𝑛2&amp;…&amp;𝑎𝑛𝑛))</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </mc:Fallback>
+        </mc:AlternateContent>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="57" name="TextBox 56">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EAA0124-C359-434A-BDCF-5E0CE260D439}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="12414992" y="46315312"/>
+              <a:ext cx="887557" cy="1396279"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="8800"/>
+                <a:t>-</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="8800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="58" name="TextBox 57">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B95D31C-4B70-4C18-9DEA-07EA6F04F7BC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3755901" y="49757301"/>
+              <a:ext cx="887557" cy="1396279"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="8800"/>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="8800"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="59" name="TextBox 58">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DDAA2E0-3906-4968-8EC7-90723BEB8A96}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="4113089" y="49281051"/>
+                  <a:ext cx="7251122" cy="3104055"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr/>
+                  <a14:m>
+                    <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                      <m:oMathParaPr>
+                        <m:jc m:val="centerGroup"/>
+                      </m:oMathParaPr>
+                      <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                        <m:d>
+                          <m:dPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:dPr>
+                          <m:e>
+                            <m:m>
+                              <m:mPr>
+                                <m:mcs>
+                                  <m:mc>
+                                    <m:mcPr>
+                                      <m:count m:val="4"/>
+                                      <m:mcJc m:val="center"/>
+                                    </m:mcPr>
+                                  </m:mc>
+                                </m:mcs>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:mPr>
+                              <m:mr>
+                                <m:e>
+                                  <m:r>
+                                    <m:rPr>
+                                      <m:brk m:alnAt="7"/>
+                                    </m:rPr>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>0</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>0</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>0</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:mr>
+                              <m:mr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>0</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>0</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>0</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:mr>
+                              <m:mr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:mr>
+                              <m:mr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>0</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>0</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>…</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>0</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:mr>
+                            </m:m>
+                          </m:e>
+                        </m:d>
+                      </m:oMath>
+                    </m:oMathPara>
+                  </a14:m>
+                  <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </mc:Choice>
+          <mc:Fallback>
+            <xdr:sp macro="" textlink="">
+              <xdr:nvSpPr>
+                <xdr:cNvPr id="59" name="TextBox 58">
+                  <a:extLst>
+                    <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                      <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DDAA2E0-3906-4968-8EC7-90723BEB8A96}"/>
+                    </a:ext>
+                  </a:extLst>
+                </xdr:cNvPr>
+                <xdr:cNvSpPr txBox="1"/>
+              </xdr:nvSpPr>
+              <xdr:spPr>
+                <a:xfrm>
+                  <a:off x="4113089" y="49281051"/>
+                  <a:ext cx="7251122" cy="3104055"/>
+                </a:xfrm>
+                <a:prstGeom prst="rect">
+                  <a:avLst/>
+                </a:prstGeom>
+                <a:noFill/>
+              </xdr:spPr>
+              <xdr:style>
+                <a:lnRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:lnRef>
+                <a:fillRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:fillRef>
+                <a:effectRef idx="0">
+                  <a:scrgbClr r="0" g="0" b="0"/>
+                </a:effectRef>
+                <a:fontRef idx="minor">
+                  <a:schemeClr val="tx1"/>
+                </a:fontRef>
+              </xdr:style>
+              <xdr:txBody>
+                <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr/>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <a:t>(■8(</a:t>
+                  </a:r>
+                  <a:r>
+                    <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <a:t>0&amp;0&amp;…&amp;0@0&amp;0&amp;…&amp;0@…&amp;…&amp;…&amp;…@0&amp;0&amp;…&amp;0))</a:t>
+                  </a:r>
+                  <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+                </a:p>
+              </xdr:txBody>
+            </xdr:sp>
+          </mc:Fallback>
+        </mc:AlternateContent>
+      </xdr:grpSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="61" name="TextBox 60">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BCB4D22-B90B-47AC-81FA-527E7316588E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="41628580"/>
+            <a:ext cx="1710170" cy="1472045"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="9600"/>
+              <a:t>(1)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="9600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="62" name="TextBox 61">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5630D694-EBA2-47FE-92D8-EE6B77281DA4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="0" y="46174602"/>
+            <a:ext cx="1710170" cy="1472045"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="9600"/>
+              <a:t>(2)</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="9600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>184006</xdr:colOff>
+      <xdr:row>265</xdr:row>
+      <xdr:rowOff>10825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>313892</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>75768</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="직사각형 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC097C83-386E-44A8-81B7-D79562B8BAD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1526165" y="54508978"/>
+          <a:ext cx="4827443" cy="681904"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00">
+            <a:alpha val="30000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>261</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>489672</xdr:colOff>
+      <xdr:row>271</xdr:row>
+      <xdr:rowOff>135669</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="67" name="그룹 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC83B837-E3F1-8CEC-6B16-C98C0F8758E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4052455" y="54240545"/>
+          <a:ext cx="6568353" cy="2213851"/>
+          <a:chOff x="0" y="53675540"/>
+          <a:chExt cx="6529388" cy="2192203"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="64" name="TextBox 63">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF1B1D5F-09F8-4EB8-B9AB-25E426914319}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="0" y="53675540"/>
+                <a:ext cx="6529388" cy="2192203"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr/>
+                <a14:m>
+                  <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:oMathParaPr>
+                      <m:jc m:val="centerGroup"/>
+                    </m:oMathParaPr>
+                    <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                      <m:d>
+                        <m:dPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:m>
+                            <m:mPr>
+                              <m:mcs>
+                                <m:mc>
+                                  <m:mcPr>
+                                    <m:count m:val="3"/>
+                                    <m:mcJc m:val="center"/>
+                                  </m:mcPr>
+                                </m:mc>
+                              </m:mcs>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:mPr>
+                            <m:mr>
+                              <m:e>
+                                <m:r>
+                                  <m:rPr>
+                                    <m:brk m:alnAt="7"/>
+                                  </m:rPr>
+                                  <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>6</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>63</m:t>
+                                </m:r>
+                              </m:e>
+                            </m:mr>
+                            <m:mr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>0</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>0</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>0</m:t>
+                                </m:r>
+                              </m:e>
+                            </m:mr>
+                            <m:mr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>1</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:e>
+                            </m:mr>
+                          </m:m>
+                        </m:e>
+                      </m:d>
+                    </m:oMath>
+                  </m:oMathPara>
+                </a14:m>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </mc:Choice>
+        <mc:Fallback>
+          <xdr:sp macro="" textlink="">
+            <xdr:nvSpPr>
+              <xdr:cNvPr id="64" name="TextBox 63">
+                <a:extLst>
+                  <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                    <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF1B1D5F-09F8-4EB8-B9AB-25E426914319}"/>
+                  </a:ext>
+                </a:extLst>
+              </xdr:cNvPr>
+              <xdr:cNvSpPr txBox="1"/>
+            </xdr:nvSpPr>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="0" y="53675540"/>
+                <a:ext cx="6529388" cy="2192203"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+            </xdr:spPr>
+            <xdr:style>
+              <a:lnRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:lnRef>
+              <a:fillRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:fillRef>
+              <a:effectRef idx="0">
+                <a:scrgbClr r="0" g="0" b="0"/>
+              </a:effectRef>
+              <a:fontRef idx="minor">
+                <a:schemeClr val="tx1"/>
+              </a:fontRef>
+            </xdr:style>
+            <xdr:txBody>
+              <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr/>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="0">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>(</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="0">
+                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>■8(2&amp;6&amp;63@0&amp;0&amp;0@2&amp;1&amp;2))</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+              </a:p>
+            </xdr:txBody>
+          </xdr:sp>
+        </mc:Fallback>
+      </mc:AlternateContent>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="66" name="TextBox 65">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D2D67EB-36D3-489F-8EC4-84BDEC51E193}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5520169" y="54541448"/>
+            <a:ext cx="855086" cy="660256"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US" sz="2400"/>
+              <a:t>영행</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>277</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>540327</xdr:colOff>
+      <xdr:row>292</xdr:row>
+      <xdr:rowOff>19254</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="68" name="TextBox 67">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B997BA5-C2EA-4E57-9609-E6701CCEF99D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="56965994"/>
+              <a:ext cx="7251122" cy="3104055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:m>
+                          <m:mPr>
+                            <m:mcs>
+                              <m:mc>
+                                <m:mcPr>
+                                  <m:count m:val="4"/>
+                                  <m:mcJc m:val="center"/>
+                                </m:mcPr>
+                              </m:mc>
+                            </m:mcs>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:mPr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <m:rPr>
+                                  <m:brk m:alnAt="7"/>
+                                </m:rPr>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>11</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>12</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>1</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑛</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>21</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>22</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑛</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎𝑛</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>1</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎𝑛</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎𝑛𝑛</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                        </m:m>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="68" name="TextBox 67">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B997BA5-C2EA-4E57-9609-E6701CCEF99D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="56965994"/>
+              <a:ext cx="7251122" cy="3104055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(■8(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎11&amp;𝑎12&amp;…&amp;𝑎1𝑛@𝑎21&amp;𝑎22&amp;…&amp;𝑎2𝑛@…&amp;…&amp;…&amp;…@𝑎𝑛1&amp;𝑎𝑛2&amp;…&amp;𝑎𝑛𝑛))</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>454602</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>43296</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="TextBox 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{001E8C7D-A781-457D-A7E1-5B1458086D62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620000" y="57669545"/>
+          <a:ext cx="887557" cy="1396279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="8800"/>
+            <a:t>+</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="8800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>627784</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>97414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>519546</xdr:colOff>
+      <xdr:row>288</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="TextBox 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{533A0B3E-4F85-4CD7-9E23-7FDA7FDA03A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8680739" y="57269062"/>
+          <a:ext cx="1905000" cy="2045711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="13800"/>
+            <a:t>D</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="13800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>227301</xdr:colOff>
+      <xdr:row>280</xdr:row>
+      <xdr:rowOff>64944</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>443778</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>21650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="TextBox 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{476018EF-3837-404E-96A6-B8EE9710116B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10293494" y="57647899"/>
+          <a:ext cx="887557" cy="1396279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="8800"/>
+            <a:t>=</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="8800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>508722</xdr:colOff>
+      <xdr:row>275</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>377969</xdr:colOff>
+      <xdr:row>290</xdr:row>
+      <xdr:rowOff>192436</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="72" name="TextBox 71">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA90971-7429-41F9-AB55-4B9715E43F2D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10574915" y="56727870"/>
+              <a:ext cx="7251122" cy="3104055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:m>
+                          <m:mPr>
+                            <m:mcs>
+                              <m:mc>
+                                <m:mcPr>
+                                  <m:count m:val="4"/>
+                                  <m:mcJc m:val="center"/>
+                                </m:mcPr>
+                              </m:mc>
+                            </m:mcs>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:mPr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <m:rPr>
+                                  <m:brk m:alnAt="7"/>
+                                </m:rPr>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                        </m:m>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="72" name="TextBox 71">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BA90971-7429-41F9-AB55-4B9715E43F2D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10574915" y="56727870"/>
+              <a:ext cx="7251122" cy="3104055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(■8(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>0&amp;0&amp;…&amp;0@0&amp;0&amp;…&amp;0@…&amp;…&amp;…&amp;…@0&amp;0&amp;…&amp;0))</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>173183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>562841</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>162360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="TextBox 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A134E74-DE68-4EF4-A6F7-1EDF67EA682F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="61663552"/>
+          <a:ext cx="1905000" cy="2045711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="13800"/>
+            <a:t>D</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="13800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>151535</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>151534</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>368012</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>108239</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="TextBox 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C14D7E7-48DE-46CC-AE7E-9A3B329F532A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1493694" y="62053210"/>
+          <a:ext cx="887557" cy="1396279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="8800"/>
+            <a:t>=</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="8800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>173183</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>42430</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>192436</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="75" name="TextBox 74">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A08D50-B44C-4F5F-AE01-0FB010BB935B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1515342" y="61457898"/>
+              <a:ext cx="7251122" cy="3104055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:m>
+                          <m:mPr>
+                            <m:mcs>
+                              <m:mc>
+                                <m:mcPr>
+                                  <m:count m:val="4"/>
+                                  <m:mcJc m:val="center"/>
+                                </m:mcPr>
+                              </m:mc>
+                            </m:mcs>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:mPr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <m:rPr>
+                                  <m:brk m:alnAt="7"/>
+                                </m:rPr>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                        </m:m>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="75" name="TextBox 74">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A08D50-B44C-4F5F-AE01-0FB010BB935B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1515342" y="61457898"/>
+              <a:ext cx="7251122" cy="3104055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(■8(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>0&amp;0&amp;…&amp;0@0&amp;0&amp;…&amp;0@…&amp;…&amp;…&amp;…@0&amp;0&amp;…&amp;0))</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>302</xdr:row>
+      <xdr:rowOff>43295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>140710</xdr:colOff>
+      <xdr:row>309</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="TextBox 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B449A17-B910-4134-B1AF-D083C6346B94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7977187" y="62150625"/>
+          <a:ext cx="887557" cy="1396279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="8800"/>
+            <a:t>-</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="8800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>32471</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>173183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>572797</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>192437</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="77" name="TextBox 76">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D2E6967-6F87-4118-BE9F-90657A5ECA2B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8756505" y="61457899"/>
+              <a:ext cx="7251122" cy="3104055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:m>
+                          <m:mPr>
+                            <m:mcs>
+                              <m:mc>
+                                <m:mcPr>
+                                  <m:count m:val="4"/>
+                                  <m:mcJc m:val="center"/>
+                                </m:mcPr>
+                              </m:mc>
+                            </m:mcs>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:mPr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <m:rPr>
+                                  <m:brk m:alnAt="7"/>
+                                </m:rPr>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>11</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>12</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>1</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑛</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>21</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>22</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑛</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎𝑛</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>1</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎𝑛</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎𝑛𝑛</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                        </m:m>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="77" name="TextBox 76">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D2E6967-6F87-4118-BE9F-90657A5ECA2B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8756505" y="61457899"/>
+              <a:ext cx="7251122" cy="3104055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(■8(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎11&amp;𝑎12&amp;…&amp;𝑎1𝑛@𝑎21&amp;𝑎22&amp;…&amp;𝑎2𝑛@…&amp;…&amp;…&amp;…@𝑎𝑛1&amp;𝑎𝑛2&amp;…&amp;𝑎𝑛𝑛))</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>487074</xdr:colOff>
+      <xdr:row>318</xdr:row>
+      <xdr:rowOff>32472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>356321</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>51726</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="78" name="TextBox 77">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86EF0AD1-D9F0-4CBC-B39C-EB2050B844DB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2500313" y="65430256"/>
+              <a:ext cx="7251122" cy="3104055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:m>
+                          <m:mPr>
+                            <m:mcs>
+                              <m:mc>
+                                <m:mcPr>
+                                  <m:count m:val="4"/>
+                                  <m:mcJc m:val="center"/>
+                                </m:mcPr>
+                              </m:mc>
+                            </m:mcs>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:mPr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <m:rPr>
+                                  <m:brk m:alnAt="7"/>
+                                </m:rPr>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>−</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>11</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>−</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>12</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>−</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>1</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑛</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>−</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>21</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>−</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>22</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>−</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑛</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>−</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎𝑛</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>1</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>−</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎𝑛</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>−</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎𝑛𝑛</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                        </m:m>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="78" name="TextBox 77">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86EF0AD1-D9F0-4CBC-B39C-EB2050B844DB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2500313" y="65430256"/>
+              <a:ext cx="7251122" cy="3104055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(■8(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>−𝑎11&amp;−𝑎12&amp;…&amp;−𝑎1𝑛@−𝑎21&amp;−𝑎22&amp;…&amp;−𝑎2𝑛@…&amp;…&amp;…&amp;…@−𝑎𝑛1&amp;−𝑎𝑛2&amp;…&amp;−𝑎𝑛𝑛))</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>162357</xdr:colOff>
+      <xdr:row>321</xdr:row>
+      <xdr:rowOff>162359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>378834</xdr:colOff>
+      <xdr:row>328</xdr:row>
+      <xdr:rowOff>119064</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="TextBox 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF5C0533-C848-4173-B6D6-8BDC2B6C1EF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504516" y="66177103"/>
+          <a:ext cx="887557" cy="1396279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="8800"/>
+            <a:t>=</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="8800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>69274</xdr:colOff>
+      <xdr:row>343</xdr:row>
+      <xdr:rowOff>86592</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>609601</xdr:colOff>
+      <xdr:row>358</xdr:row>
+      <xdr:rowOff>105846</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="80" name="TextBox 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B5DF05D-71E3-4110-82D5-C21206AA8C28}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4121729" y="71368228"/>
+              <a:ext cx="7294417" cy="3136527"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:m>
+                          <m:mPr>
+                            <m:mcs>
+                              <m:mc>
+                                <m:mcPr>
+                                  <m:count m:val="4"/>
+                                  <m:mcJc m:val="center"/>
+                                </m:mcPr>
+                              </m:mc>
+                            </m:mcs>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:mPr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <m:rPr>
+                                  <m:brk m:alnAt="7"/>
+                                </m:rPr>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>11</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>12</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>1</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑚</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>21</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>22</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑚</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎𝑛</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>1</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎𝑛</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎𝑛𝑚</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                        </m:m>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="80" name="TextBox 79">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B5DF05D-71E3-4110-82D5-C21206AA8C28}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4121729" y="71368228"/>
+              <a:ext cx="7294417" cy="3136527"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(■8(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎11&amp;𝑎12&amp;…&amp;𝑎1𝑚@𝑎21&amp;𝑎22&amp;…&amp;𝑎2𝑚@…&amp;…&amp;…&amp;…@𝑎𝑛1&amp;𝑎𝑛2&amp;…&amp;𝑎𝑛𝑚))</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>467591</xdr:colOff>
+      <xdr:row>344</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>162359</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="TextBox 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2DF3C94-71BD-4C64-A50C-E5CD1991B3AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2493818" y="71662636"/>
+          <a:ext cx="1575955" cy="2067359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="13800"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="13800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>173183</xdr:colOff>
+      <xdr:row>344</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>398320</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>179677</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="85" name="그룹 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17703896-9816-F767-79AC-B85812BB0917}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="13005956" y="71576046"/>
+          <a:ext cx="1575955" cy="2171267"/>
+          <a:chOff x="9871364" y="71454819"/>
+          <a:chExt cx="1575955" cy="2171267"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="82" name="TextBox 81">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE3F6849-A052-4EEC-8857-48D5A95A6EF7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9871364" y="71558727"/>
+            <a:ext cx="1575955" cy="2067359"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="13800"/>
+              <a:t>A</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="13800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="83" name="TextBox 82">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CF2DEB-429D-4EE3-B195-30A926CAA850}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10754592" y="71454819"/>
+            <a:ext cx="588818" cy="935182"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="6600"/>
+              <a:t>T</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="6600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>450273</xdr:colOff>
+      <xdr:row>343</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>358</xdr:row>
+      <xdr:rowOff>19254</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="84" name="TextBox 83">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8CEA66D-0775-42CE-81C8-5AECF2B4CA23}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14633864" y="71281636"/>
+              <a:ext cx="8347363" cy="3136527"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:m>
+                          <m:mPr>
+                            <m:mcs>
+                              <m:mc>
+                                <m:mcPr>
+                                  <m:count m:val="4"/>
+                                  <m:mcJc m:val="center"/>
+                                </m:mcPr>
+                              </m:mc>
+                            </m:mcs>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:mPr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <m:rPr>
+                                  <m:brk m:alnAt="7"/>
+                                </m:rPr>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>11</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>21</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎𝑛</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>1</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>12</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>22</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎𝑛</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>1</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑚</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑚</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>…</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>𝑎𝑛𝑚</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                        </m:m>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="84" name="TextBox 83">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8CEA66D-0775-42CE-81C8-5AECF2B4CA23}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14633864" y="71281636"/>
+              <a:ext cx="8347363" cy="3136527"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(■8(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎11&amp;𝑎21&amp;…&amp;𝑎𝑛1@𝑎12&amp;𝑎22&amp;…&amp;𝑎𝑛2@…&amp;…&amp;…&amp;…@𝑎1𝑚&amp;𝑎2𝑚&amp;…&amp;𝑎𝑛𝑚))</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>467591</xdr:colOff>
+      <xdr:row>365</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>375</xdr:row>
+      <xdr:rowOff>145041</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="TextBox 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61BD2F79-F71B-4ABA-A0B9-4F8F3D4A20D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2493818" y="76009500"/>
+          <a:ext cx="1575955" cy="2067359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="13800"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="13800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>155865</xdr:colOff>
+      <xdr:row>367</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>20782</xdr:colOff>
+      <xdr:row>382</xdr:row>
+      <xdr:rowOff>88528</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="87" name="TextBox 86">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C991F68-069B-4B3F-B351-630A41D45831}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3532910" y="76338546"/>
+              <a:ext cx="7294417" cy="3136527"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:m>
+                          <m:mPr>
+                            <m:mcs>
+                              <m:mc>
+                                <m:mcPr>
+                                  <m:count m:val="4"/>
+                                  <m:mcJc m:val="center"/>
+                                </m:mcPr>
+                              </m:mc>
+                            </m:mcs>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:mPr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <m:rPr>
+                                  <m:brk m:alnAt="7"/>
+                                </m:rPr>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>3</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>5</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>7</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>9</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>11</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>13</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>15</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>17</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                        </m:m>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="87" name="TextBox 86">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C991F68-069B-4B3F-B351-630A41D45831}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3532910" y="76338546"/>
+              <a:ext cx="7294417" cy="3136527"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>■8(3&amp;5&amp;7&amp;9@11&amp;13&amp;15&amp;17))</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>364</xdr:row>
+      <xdr:rowOff>48492</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>377538</xdr:colOff>
+      <xdr:row>374</xdr:row>
+      <xdr:rowOff>141577</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="88" name="그룹 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{247D5DEF-275F-4912-9FE0-22CFD3820FB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12985174" y="75694310"/>
+          <a:ext cx="1575955" cy="2171267"/>
+          <a:chOff x="9871364" y="71454819"/>
+          <a:chExt cx="1575955" cy="2171267"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="89" name="TextBox 88">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15AADB1C-82BA-9AF5-5CA8-6D84F2C37E1D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9871364" y="71558727"/>
+            <a:ext cx="1575955" cy="2067359"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="13800"/>
+              <a:t>A</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="13800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="90" name="TextBox 89">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C6F350E-86DD-6F85-1EEC-AD38B80308D3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10754592" y="71454819"/>
+            <a:ext cx="588818" cy="935182"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="6600"/>
+              <a:t>T</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="6600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>277091</xdr:colOff>
+      <xdr:row>365</xdr:row>
+      <xdr:rowOff>121228</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>142008</xdr:colOff>
+      <xdr:row>380</xdr:row>
+      <xdr:rowOff>140482</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="91" name="TextBox 90">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80EEE436-4C9C-451E-97D7-9FB4847DC320}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13109864" y="75974864"/>
+              <a:ext cx="7294417" cy="3136527"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:m>
+                          <m:mPr>
+                            <m:mcs>
+                              <m:mc>
+                                <m:mcPr>
+                                  <m:count m:val="2"/>
+                                  <m:mcJc m:val="center"/>
+                                </m:mcPr>
+                              </m:mc>
+                            </m:mcs>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:mPr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <m:rPr>
+                                  <m:brk m:alnAt="7"/>
+                                </m:rPr>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>3</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>11</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>5</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>13</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>7</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>15</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>9</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>17</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                        </m:m>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="91" name="TextBox 90">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80EEE436-4C9C-451E-97D7-9FB4847DC320}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13109864" y="75974864"/>
+              <a:ext cx="7294417" cy="3136527"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>■8(3&amp;11@5&amp;13@7&amp;15@9&amp;17))</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>389</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>399</xdr:row>
+      <xdr:rowOff>41131</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="TextBox 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{242AE32B-5DB8-4F8E-898B-81166A80F573}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2372591" y="80893227"/>
+          <a:ext cx="1575955" cy="2067359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="13800"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="13800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>225137</xdr:colOff>
+      <xdr:row>387</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>646980</xdr:colOff>
+      <xdr:row>401</xdr:row>
+      <xdr:rowOff>90692</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="93" name="TextBox 92">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C83ACE7-BDF6-4306-8C50-554A78102795}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3602182" y="80442954"/>
+              <a:ext cx="6500525" cy="2982829"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:m>
+                          <m:mPr>
+                            <m:mcs>
+                              <m:mc>
+                                <m:mcPr>
+                                  <m:count m:val="4"/>
+                                  <m:mcJc m:val="center"/>
+                                </m:mcPr>
+                              </m:mc>
+                            </m:mcs>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:mPr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <m:rPr>
+                                  <m:brk m:alnAt="7"/>
+                                </m:rPr>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>33</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>4</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                        </m:m>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="93" name="TextBox 92">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C83ACE7-BDF6-4306-8C50-554A78102795}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3602182" y="80442954"/>
+              <a:ext cx="6500525" cy="2982829"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(■8(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2&amp;0&amp;0&amp;0@0&amp;33&amp;0&amp;0@0&amp;0&amp;2&amp;0@0&amp;0&amp;0&amp;4))</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>69273</xdr:colOff>
+      <xdr:row>391</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>398</xdr:row>
+      <xdr:rowOff>8661</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="TextBox 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36A760DE-D207-41DE-B6E8-9D9BD1333313}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10200409" y="81308864"/>
+          <a:ext cx="891886" cy="1411433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="8800"/>
+            <a:t>=</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="8800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>311727</xdr:colOff>
+      <xdr:row>388</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>536864</xdr:colOff>
+      <xdr:row>399</xdr:row>
+      <xdr:rowOff>58448</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="95" name="그룹 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{970BB04C-2B48-48EB-BCE6-54ABB5846C7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11793682" y="80806636"/>
+          <a:ext cx="1575955" cy="2171267"/>
+          <a:chOff x="9871364" y="71454819"/>
+          <a:chExt cx="1575955" cy="2171267"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="96" name="TextBox 95">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1C85ED9-1ADC-8500-9872-E91D78340C16}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9871364" y="71558727"/>
+            <a:ext cx="1575955" cy="2067359"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="13800"/>
+              <a:t>A</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="13800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="97" name="TextBox 96">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F02170E-256A-2C6F-EE1E-AAB404C74CC6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10754592" y="71454819"/>
+            <a:ext cx="588818" cy="935182"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="6600"/>
+              <a:t>T</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="6600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>446808</xdr:colOff>
+      <xdr:row>387</xdr:row>
+      <xdr:rowOff>100445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>193242</xdr:colOff>
+      <xdr:row>401</xdr:row>
+      <xdr:rowOff>173819</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="98" name="TextBox 97">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F7BFC50-2882-42A8-92D4-C082B02E9F60}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13279581" y="80526081"/>
+              <a:ext cx="6500525" cy="2982829"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:m>
+                          <m:mPr>
+                            <m:mcs>
+                              <m:mc>
+                                <m:mcPr>
+                                  <m:count m:val="4"/>
+                                  <m:mcJc m:val="center"/>
+                                </m:mcPr>
+                              </m:mc>
+                            </m:mcs>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:mPr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <m:rPr>
+                                  <m:brk m:alnAt="7"/>
+                                </m:rPr>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>33</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>4</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                        </m:m>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="98" name="TextBox 97">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F7BFC50-2882-42A8-92D4-C082B02E9F60}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13279581" y="80526081"/>
+              <a:ext cx="6500525" cy="2982829"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(■8(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2&amp;0&amp;0&amp;0@0&amp;33&amp;0&amp;0@0&amp;0&amp;2&amp;0@0&amp;0&amp;0&amp;4))</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>242454</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>467591</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>127723</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="TextBox 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{353F4B0D-B735-4CB4-9875-08CBEFBF8E64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2268681" y="84928364"/>
+          <a:ext cx="1575955" cy="2067359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="13800"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="13800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>536863</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>283297</xdr:colOff>
+      <xdr:row>422</xdr:row>
+      <xdr:rowOff>159964</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="100" name="TextBox 99">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F4A760C-7B7A-4375-8DD8-7DBD212C747D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3913908" y="84876408"/>
+              <a:ext cx="6500525" cy="2982829"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:m>
+                          <m:mPr>
+                            <m:mcs>
+                              <m:mc>
+                                <m:mcPr>
+                                  <m:count m:val="3"/>
+                                  <m:mcJc m:val="center"/>
+                                </m:mcPr>
+                              </m:mc>
+                            </m:mcs>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:mPr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <m:rPr>
+                                  <m:brk m:alnAt="7"/>
+                                </m:rPr>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>−1</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>−2</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>4</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>1</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>−4</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                        </m:m>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="100" name="TextBox 99">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F4A760C-7B7A-4375-8DD8-7DBD212C747D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3913908" y="84876408"/>
+              <a:ext cx="6500525" cy="2982829"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>■8(0&amp;2&amp;−1@−2&amp;0&amp;4@1&amp;−4&amp;0))</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>294409</xdr:colOff>
+      <xdr:row>410</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>510885</xdr:colOff>
+      <xdr:row>417</xdr:row>
+      <xdr:rowOff>43297</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="TextBox 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B74E2E5A-EECE-4F5C-9D15-F4AE33B2549B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3671454" y="85292046"/>
+          <a:ext cx="891886" cy="1411433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="8800"/>
+            <a:t>=</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="8800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>207817</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>432954</xdr:colOff>
+      <xdr:row>418</xdr:row>
+      <xdr:rowOff>145040</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="102" name="그룹 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E007A3A8-95DC-4EC9-BCA8-D471A79C0D69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11689772" y="84841773"/>
+          <a:ext cx="1575955" cy="2171267"/>
+          <a:chOff x="9871364" y="71454819"/>
+          <a:chExt cx="1575955" cy="2171267"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="103" name="TextBox 102">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19CCDB37-26E0-88A3-DA05-C7B387B3CBA8}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9871364" y="71558727"/>
+            <a:ext cx="1575955" cy="2067359"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="13800"/>
+              <a:t>A</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="13800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="104" name="TextBox 103">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D4B781B-42A9-485B-8920-9521763F99DA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10754592" y="71454819"/>
+            <a:ext cx="588818" cy="935182"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="6600"/>
+              <a:t>T</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="6600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>138545</xdr:colOff>
+      <xdr:row>408</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>560388</xdr:colOff>
+      <xdr:row>423</xdr:row>
+      <xdr:rowOff>38738</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="107" name="TextBox 106">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160B3DAA-413A-4044-A080-69BAE6D84272}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13646727" y="84963000"/>
+              <a:ext cx="6500525" cy="2982829"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:m>
+                          <m:mPr>
+                            <m:mcs>
+                              <m:mc>
+                                <m:mcPr>
+                                  <m:count m:val="3"/>
+                                  <m:mcJc m:val="center"/>
+                                </m:mcPr>
+                              </m:mc>
+                            </m:mcs>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:mPr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <m:rPr>
+                                  <m:brk m:alnAt="7"/>
+                                </m:rPr>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>−2</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>1</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>−4</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                          <m:mr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>−1</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>4</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>0</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:mr>
+                        </m:m>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="107" name="TextBox 106">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{160B3DAA-413A-4044-A080-69BAE6D84272}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13646727" y="84963000"/>
+              <a:ext cx="6500525" cy="2982829"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="5400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>■8(0&amp;−2&amp;1@2&amp;0&amp;−4@−1&amp;4&amp;0))</a:t>
+              </a:r>
+              <a:endParaRPr lang="ko-KR" altLang="en-US" sz="5400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>498763</xdr:colOff>
+      <xdr:row>410</xdr:row>
+      <xdr:rowOff>100445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>39831</xdr:colOff>
+      <xdr:row>417</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="TextBox 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FD01AA6-BF58-405D-B6BA-7559FE97A748}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13331536" y="85305900"/>
+          <a:ext cx="891886" cy="1411433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="8800"/>
+            <a:t>=</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="8800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>502227</xdr:colOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>51954</xdr:colOff>
+      <xdr:row>435</xdr:row>
+      <xdr:rowOff>93086</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="TextBox 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83861B57-C150-4EA7-BEF1-1F8623501A70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2528454" y="88426636"/>
+          <a:ext cx="1575955" cy="2067359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="13800"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="13800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>346363</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>103908</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>562840</xdr:colOff>
+      <xdr:row>434</xdr:row>
+      <xdr:rowOff>60614</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="TextBox 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0754E59-C049-46A3-AEEF-9D625033B9CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4398818" y="88842272"/>
+          <a:ext cx="891886" cy="1411433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="8800"/>
+            <a:t>=</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="8800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>225135</xdr:colOff>
+      <xdr:row>425</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>450272</xdr:colOff>
+      <xdr:row>435</xdr:row>
+      <xdr:rowOff>162358</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="111" name="그룹 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6E20547-6921-4281-A019-72ECA0062978}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8330044" y="88392000"/>
+          <a:ext cx="1575955" cy="2171267"/>
+          <a:chOff x="9871364" y="71454819"/>
+          <a:chExt cx="1575955" cy="2171267"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="112" name="TextBox 111">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1696505-0AAC-DC0E-0D99-ED028203E2BB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9871364" y="71558727"/>
+            <a:ext cx="1575955" cy="2067359"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="13800"/>
+              <a:t>A</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="13800"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="113" name="TextBox 112">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AB6A45F-E57B-956F-16F6-ED7C42F7B4EB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10754592" y="71454819"/>
+            <a:ext cx="588818" cy="935182"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ko-KR" sz="6600"/>
+              <a:t>T</a:t>
+            </a:r>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="6600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>554181</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>86590</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>363682</xdr:colOff>
+      <xdr:row>437</xdr:row>
+      <xdr:rowOff>75768</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="TextBox 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0CFE362-DBDC-420D-8775-988671D03626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5282045" y="88824954"/>
+          <a:ext cx="1835728" cy="2067359"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="8800"/>
+            <a:t>(-1)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="8800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>568036</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>117763</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>109104</xdr:colOff>
+      <xdr:row>434</xdr:row>
+      <xdr:rowOff>74469</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="TextBox 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAA74B37-C01C-4E5C-9713-7AA50F2C754F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7322127" y="88856127"/>
+          <a:ext cx="891886" cy="1411433"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="8800"/>
+            <a:t>x</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="8800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6975,8 +15474,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1537600" cy="931345"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -7173,7 +15672,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -7244,8 +15743,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2082237" cy="1284647"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -7509,7 +16008,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -7580,8 +16079,8 @@
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1400255" cy="923843"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -7749,7 +16248,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -7820,8 +16319,8 @@
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1997470" cy="620939"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -7967,7 +16466,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -8038,8 +16537,8 @@
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1537600" cy="931345"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -8236,7 +16735,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -8571,8 +17070,8 @@
       <xdr:rowOff>62638</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3443057" cy="1284775"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -8896,7 +17395,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -9452,8 +17951,8 @@
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1537600" cy="931345"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -9650,7 +18149,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -10351,8 +18850,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="317500" y="8705850"/>
-          <a:ext cx="7283450" cy="4400550"/>
+          <a:off x="317500" y="8451850"/>
+          <a:ext cx="7397750" cy="4273550"/>
           <a:chOff x="908050" y="12363450"/>
           <a:chExt cx="7283450" cy="4400550"/>
         </a:xfrm>
@@ -10841,11 +19340,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A168" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A179" sqref="A179"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A389" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B409" sqref="B409"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10862,7 +19361,7 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
